--- a/SpMVC_004_MyCarV2/document/차계부-테이블명세.xlsx
+++ b/SpMVC_004_MyCarV2/document/차계부-테이블명세.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505233\Documents\workspace\springMVC\SpMVC_004_MyCar\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505233\Documents\workspace\springMVC\SpMVC_004_MyCarV2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD602041-F032-4930-849A-893EE6B24D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6950AF68-E3B7-4E58-8574-999D665EE5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="학생정보" sheetId="2" r:id="rId1"/>
-    <sheet name="과목정보" sheetId="3" r:id="rId2"/>
+    <sheet name="차량운행기록" sheetId="2" r:id="rId1"/>
+    <sheet name="사용자" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>오라클형식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>변경이력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -120,136 +116,90 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>과목코드</t>
-  </si>
-  <si>
-    <t>수강과목</t>
-  </si>
-  <si>
-    <t>담당교수</t>
-  </si>
-  <si>
-    <t>강의실</t>
-  </si>
-  <si>
-    <t>문자열(4)</t>
+    <t>문자열(10)</t>
+  </si>
+  <si>
+    <t>문자열(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량운행기록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_carmanager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>차계부 table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.07.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소요비용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작거리(km)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료거리(km)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰정수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>문자열(20)</t>
-  </si>
-  <si>
-    <t>문자열(10)</t>
-  </si>
-  <si>
-    <t>수강신청 시스템에서 수강신청할 과목정보를 저장할 Table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>과목(정보)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강신청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sb_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(15)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sb_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sb_profess</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sb_calss_room</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>차량운행기록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_carmanager</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>차계부 table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.07.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MySQL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>차량번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>업무구분</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작일자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>목적지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료일자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소요비용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작거리(km)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료거리(km)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>큰정수형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(20)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -345,6 +295,77 @@
   </si>
   <si>
     <t>AUTO_INCREMENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_users</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.07.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_nickname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_tel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_role</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1246,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1903,7 +1924,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>14</v>
@@ -1916,7 +1937,7 @@
       </c>
       <c r="I2" s="32"/>
       <c r="J2" s="34" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="K2" s="35"/>
       <c r="L2" s="18" t="s">
@@ -1928,7 +1949,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
@@ -1947,7 +1968,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -1973,7 +1994,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -1999,23 +2020,23 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -2026,19 +2047,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -2051,19 +2072,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -2076,19 +2097,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -2101,19 +2122,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -2126,19 +2147,19 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -2151,16 +2172,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -2174,16 +2195,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -2197,16 +2218,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -2220,16 +2241,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -2243,16 +2264,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -2266,16 +2287,16 @@
         <v>12</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -2346,21 +2367,21 @@
     </row>
     <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="D26" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="E26" s="20" t="s">
         <v>21</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>22</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
@@ -2504,11 +2525,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FB051C-1212-4F59-A4DA-8E9E1E7ECAE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DA23F7-1EF5-4A60-B2F4-2A785F77E563}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3164,7 +3185,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>14</v>
@@ -3176,7 +3197,9 @@
         <v>12</v>
       </c>
       <c r="I2" s="32"/>
-      <c r="J2" s="34"/>
+      <c r="J2" s="34" t="s">
+        <v>75</v>
+      </c>
       <c r="K2" s="35"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
@@ -3187,7 +3210,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
@@ -3206,7 +3229,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -3232,7 +3255,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -3258,17 +3281,21 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -3279,16 +3306,20 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+        <v>78</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -3300,16 +3331,20 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+        <v>79</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -3321,15 +3356,17 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="10"/>
+        <v>80</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -3341,10 +3378,18 @@
       <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -3356,11 +3401,21 @@
       <c r="B11" s="9">
         <v>6</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -3519,21 +3574,21 @@
     </row>
     <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="D26" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="E26" s="20" t="s">
         <v>21</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>22</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
@@ -3662,12 +3717,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
